--- a/EXCEL/IRA ERA AU - HOSPITAL - 2023.xlsx
+++ b/EXCEL/IRA ERA AU - HOSPITAL - 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/GIE/IRA-ERA/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{31C7AAC9-A0E2-458B-ADCF-9BA099714425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99F01974-88C3-4274-B129-040CDB4CCC04}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{31C7AAC9-A0E2-458B-ADCF-9BA099714425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70B82AC6-86CE-4426-82F9-D50C817EFA31}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{6C70D36C-FB8B-4847-925F-85032D42C57A}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="8" activeTab="8" xr2:uid="{6C70D36C-FB8B-4847-925F-85032D42C57A}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas las Edades" sheetId="2" r:id="rId1"/>
@@ -10364,16 +10364,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13623,7 +13623,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14387,7 +14387,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D1048576"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15150,8 +15150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A5C38-25FD-49AF-94D3-8246FF4284EA}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15915,7 +15915,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15969,7 +15969,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16023,7 +16023,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16077,7 +16077,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16131,7 +16131,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16184,8 +16184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37B0917-2245-4B2E-85CD-143541F52836}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
